--- a/biology/Zoologie/Chalinochromis_popelini/Chalinochromis_popelini.xlsx
+++ b/biology/Zoologie/Chalinochromis_popelini/Chalinochromis_popelini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chalinochromis popelini est une espèce de poisson de la famille des Cichlidae endémiques du lac Tanganyika en Afrique.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalinochromis popelini se rencontre dans le lac Tanganyika, sur les côtes de la république démocratique du Congo et de la Tanzanie[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalinochromis popelini se rencontre dans le lac Tanganyika, sur les côtes de la république démocratique du Congo et de la Tanzanie. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalinochromis popelini peut mesurer jusqu'à 150 mm de longueur totale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalinochromis popelini peut mesurer jusqu'à 150 mm de longueur totale.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Aquariophilie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chalinochromis popelini est une espèce assez répandue dans le commerce aquariophile.
 </t>
@@ -604,13 +622,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Chalinochromis popelini Brichard (d), 1989[2].
-Chalinochromis popelini a pour synonyme[2] :
-Chalinochromis popeleni Brichard, 1989 (graphie incorrecte
-Publication originale
-(en) Pierre Brichard, Book of cichlids and all the other fishes of Lake Tanganyika, T. H. F. Publications, janvier 1989, 544 p. (ISBN 978-0866226677).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Chalinochromis popelini Brichard (d), 1989.
+Chalinochromis popelini a pour synonyme :
+Chalinochromis popeleni Brichard, 1989 (graphie incorrecte</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chalinochromis_popelini</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chalinochromis_popelini</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Pierre Brichard, Book of cichlids and all the other fishes of Lake Tanganyika, T. H. F. Publications, janvier 1989, 544 p. (ISBN 978-0866226677).</t>
         </is>
       </c>
     </row>
